--- a/BacillusDaten/Stamm186/metadata.xlsx
+++ b/BacillusDaten/Stamm186/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\biomoni\BacillusDaten\Stamm186\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8958FEF9-5402-4CE3-8F0E-9A362F1F0DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4D30AC-14DA-4DDA-A9A0-69DEA1C1DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Experiment</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>mg/L</t>
+  </si>
+  <si>
+    <t>mX0</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,15 +502,15 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="3"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,40 +536,43 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -589,38 +595,41 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -645,42 +654,46 @@
       <c r="H3" s="7">
         <v>4.8430800000000003E-2</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:K4" si="0">H3*0.5</f>
+        <v>2.4215400000000002E-2</v>
+      </c>
+      <c r="J3" s="6">
         <v>24.710294634452463</v>
       </c>
-      <c r="J3" s="8">
-        <f t="shared" ref="J3:J4" si="0">I3*0.5</f>
+      <c r="K3" s="8">
+        <f t="shared" si="0"/>
         <v>12.355147317226232</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.3669</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>335.45021964229687</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.5</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>37</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>184.61</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="10">
         <v>8.4942528735632177</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -705,38 +718,42 @@
       <c r="H4" s="7">
         <v>5.8593930000000002E-2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9296965000000001E-2</v>
+      </c>
+      <c r="J4" s="6">
         <v>29.461074050831506</v>
       </c>
-      <c r="J4" s="8">
+      <c r="K4" s="8">
         <f t="shared" si="0"/>
         <v>14.730537025415753</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.3669</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>354.40435205522436</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.5</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>37</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>184.61</v>
       </c>
-      <c r="R4" s="10">
+      <c r="S4" s="10">
         <v>9.6896551724137918</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>30</v>
       </c>
     </row>
